--- a/example/measures.xlsx
+++ b/example/measures.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MAA2016-15 Supporting the Social Investment Unit\ForChecking\Simon_A\GDAT tool\rprogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MAA2016-15 Supporting the Social Investment Unit\Preparing the dataset assembly tool for publication\GDAT tool\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,9 +35,6 @@
     <t>Schema_name</t>
   </si>
   <si>
-    <t>[DL-MAA2016-15]</t>
-  </si>
-  <si>
     <t>Table_name</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t>example_measure_employment.sql</t>
+  </si>
+  <si>
+    <t>[DL-MAA2020-01]</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +575,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -584,536 +584,536 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
-        <v>51</v>
-      </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
-        <v>51</v>
-      </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
         <v>50</v>
       </c>
-      <c r="G4" t="s">
-        <v>51</v>
-      </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
         <v>50</v>
       </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>20</v>
       </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
         <v>68</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
         <v>52</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
         <v>53</v>
       </c>
-      <c r="H11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
         <v>52</v>
       </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
         <v>68</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
         <v>52</v>
       </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
         <v>68</v>
       </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
         <v>52</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
         <v>53</v>
       </c>
-      <c r="H14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" t="s">
-        <v>54</v>
-      </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
         <v>52</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" t="s">
         <v>53</v>
       </c>
-      <c r="H15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>54</v>
       </c>
-      <c r="J15" t="s">
-        <v>55</v>
-      </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
